--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2708335.049360471</v>
+        <v>2705837.317436783</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554857</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9107140.771302423</v>
+        <v>9107140.771302419</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716175</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386882</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241044748</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>200.7883341821884</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>21.13224972750117</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261779</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323726</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199533</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156107</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>11.83849799040021</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.1616712388685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
-        <v>119.3400204851826</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386882</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241044748</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011791</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>172.9380172792276</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638445</v>
+        <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261779</v>
+        <v>99.96876284261759</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323726</v>
+        <v>45.66663787323655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199533</v>
+        <v>21.29900499199404</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156107</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>127.1647691125736</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>197.5339758908081</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>310.3636796050558</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>296.9722950588259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>232.6900396322375</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695582</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892427127</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428618</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703312</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2432.327262041089</v>
+        <v>1284.232906795688</v>
       </c>
       <c r="C2" t="n">
-        <v>2063.364745100677</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="D2" t="n">
-        <v>1705.099046493927</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.310793895682</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060748</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160052</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174017</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903743</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K2" t="n">
-        <v>642.308234940329</v>
+        <v>642.3082349403372</v>
       </c>
       <c r="L2" t="n">
-        <v>819.6260902578493</v>
+        <v>974.3814859645897</v>
       </c>
       <c r="M2" t="n">
-        <v>1004.241644981215</v>
+        <v>1604.015438845867</v>
       </c>
       <c r="N2" t="n">
-        <v>1629.431735936323</v>
+        <v>1796.232074633117</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.593372690812</v>
+        <v>1964.401531937495</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833993004</v>
+        <v>2392.009993239692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724213</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.143761215017</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215017</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2432.327262041089</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2432.327262041089</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2432.327262041089</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2432.327262041089</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="X2" t="n">
-        <v>2432.327262041089</v>
+        <v>1305.578613591144</v>
       </c>
       <c r="Y2" t="n">
-        <v>2432.327262041089</v>
+        <v>1284.232906795688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120987</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309717</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697205</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.806987264265</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911501</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640349</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815826</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448319976</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291042</v>
+        <v>605.0461972358073</v>
       </c>
       <c r="M3" t="n">
-        <v>1238.315708304478</v>
+        <v>782.9346491040257</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085781</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291451</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018981</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724213</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267652</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373096</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162598</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997121</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.71808759448426</v>
+        <v>390.26654704</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448426</v>
+        <v>221.330364112093</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448426</v>
+        <v>221.330364112093</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448426</v>
+        <v>221.330364112093</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448426</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919715</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482282</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628083</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543666</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968916971</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327072</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421844</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421844</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421844</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421844</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351786</v>
+        <v>402.224625818182</v>
       </c>
       <c r="V4" t="n">
-        <v>503.9147235292918</v>
+        <v>390.26654704</v>
       </c>
       <c r="W4" t="n">
-        <v>214.4975534923312</v>
+        <v>390.26654704</v>
       </c>
       <c r="X4" t="n">
-        <v>214.4975534923312</v>
+        <v>390.26654704</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.71808759448426</v>
+        <v>390.26654704</v>
       </c>
     </row>
     <row r="5">
@@ -4541,55 +4541,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.297399032881</v>
+        <v>1273.536088462027</v>
       </c>
       <c r="C5" t="n">
-        <v>1507.297399032881</v>
+        <v>1273.536088462027</v>
       </c>
       <c r="D5" t="n">
-        <v>1507.297399032881</v>
+        <v>915.2703898552763</v>
       </c>
       <c r="E5" t="n">
-        <v>1121.509146434637</v>
+        <v>915.2703898552763</v>
       </c>
       <c r="F5" t="n">
-        <v>710.5232416450294</v>
+        <v>504.2844850656688</v>
       </c>
       <c r="G5" t="n">
-        <v>293.4233512549598</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174017</v>
+        <v>172.8778760174001</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903743</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K5" t="n">
-        <v>321.404276494876</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L5" t="n">
-        <v>458.8601258185043</v>
+        <v>612.3584352436185</v>
       </c>
       <c r="M5" t="n">
-        <v>1004.241644981215</v>
+        <v>1241.992388124896</v>
       </c>
       <c r="N5" t="n">
-        <v>1629.431735936323</v>
+        <v>1867.18247908001</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.593372690812</v>
+        <v>2412.344115834506</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833993004</v>
+        <v>2602.201833992997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724213</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215017</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
         <v>2478.652798385543</v>
@@ -4601,16 +4601,16 @@
         <v>2224.960126440574</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.897239097003</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.897239097003</v>
+        <v>2050.27526050196</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.897239097003</v>
+        <v>2050.27526050196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.897239097003</v>
+        <v>1660.135928526149</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120993</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309723</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.044442269721</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642654</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911504</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640348</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815826</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.777426335206</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727194</v>
+        <v>381.1211448320009</v>
       </c>
       <c r="L6" t="n">
-        <v>813.0227120943157</v>
+        <v>884.103979029112</v>
       </c>
       <c r="M6" t="n">
-        <v>990.9111639625288</v>
+        <v>1238.315708304459</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944272</v>
+        <v>1435.320983085768</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149941</v>
+        <v>1983.246222291442</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877471</v>
+        <v>2406.001465018976</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724213</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267652</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373096</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162598</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202654</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997121</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232167</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.5739510150304</v>
+        <v>181.1673493243565</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6377680871235</v>
+        <v>181.1673493243565</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5211286747877</v>
+        <v>181.1673493243565</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448426</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919715</v>
+        <v>153.1475318919734</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482282</v>
+        <v>337.1890785482327</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628083</v>
+        <v>541.6242080628155</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543666</v>
+        <v>746.6329435543764</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968916971</v>
+        <v>919.9753968917094</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327072</v>
+        <v>1044.779129327086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421844</v>
+        <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421844</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421844</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421844</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421844</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421844</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.751684421844</v>
+        <v>401.9599284678866</v>
       </c>
       <c r="X7" t="n">
-        <v>848.2224158452701</v>
+        <v>401.9599284678866</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.2224158452701</v>
+        <v>181.1673493243565</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1185.727434212263</v>
+        <v>835.0170687140107</v>
       </c>
       <c r="C8" t="n">
-        <v>816.7649172718509</v>
+        <v>835.0170687140107</v>
       </c>
       <c r="D8" t="n">
-        <v>458.4992186651004</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="E8" t="n">
-        <v>72.71096606685619</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765271</v>
+        <v>469.8058693580567</v>
       </c>
       <c r="G8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>73.9523375878675</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>477.4194506079129</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.638357874465</v>
+        <v>1030.232708854112</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.337770699873</v>
+        <v>1315.717061626165</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.671983591855</v>
+        <v>1943.024729686011</v>
       </c>
       <c r="O8" t="n">
-        <v>2125.833188358933</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2555.148234698227</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724211</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724211</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.932364513276</v>
+        <v>1912.120825218635</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.466606252196</v>
+        <v>1538.655066957556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.327274276384</v>
+        <v>1148.515734981744</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593632</v>
+        <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416774</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571898</v>
+        <v>238.9851591147369</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>743.3466989808555</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1383.89204844796</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1582.548790100625</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.381920494209</v>
+        <v>2131.984798853348</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2555.952567334185</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4993,19 +4993,19 @@
         <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>817.6123249808618</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>562.9278367749749</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638195413</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111981</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611076043</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332408</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014795</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.89852635595</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068018</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756254</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.388077746844</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.7136839626</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589149</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143752</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6810,7 +6810,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
         <v>1781.463605996603</v>
@@ -6819,7 +6819,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.614450297915</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400608</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121539</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121539</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121539</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121539</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270338</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648809</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611848</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138306</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703005</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7263,16 +7263,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745252</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468422</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963491</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338374</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121689</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270488</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075719</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.61155333238</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,10 +7713,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797187</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637318</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890285</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444893</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684182</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>40.26465251908283</v>
+        <v>196.5832340410284</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026548453</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>353.4290350500735</v>
       </c>
       <c r="M3" t="n">
-        <v>178.1043206132937</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>364.4100650902474</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>81.64644236975994</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>179.7892284595094</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>178.1043206132612</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792317</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8459,19 +8459,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>99.78276762287359</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>46.23436869130201</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>56.94306717106267</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-1.058940152784724e-11</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-9.923578153993826e-12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219527</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392193765</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392193766</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833783.4635594308</v>
+        <v>833783.4635594296</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>833783.4635594308</v>
+        <v>833783.4635594296</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>833435.2850954656</v>
+        <v>833435.2850954655</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.7653906166</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520048</v>
@@ -26353,7 +26353,7 @@
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222323</v>
+        <v>789845.9331222414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448482435</v>
+        <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821405</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.397933367659182e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663906</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.694142156338785e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408973</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408973</v>
+        <v>184436.3405408958</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695044</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.48053169506</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695048</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531694835</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531694848</v>
+        <v>6287.480531695054</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538424</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538424</v>
+        <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917783</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26506,10 +26506,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404014.9778970874</v>
+        <v>-404014.9778970949</v>
       </c>
       <c r="C6" t="n">
-        <v>385830.9552251449</v>
+        <v>385830.9552251463</v>
       </c>
       <c r="D6" t="n">
-        <v>383715.9634177643</v>
+        <v>383715.9634177724</v>
       </c>
       <c r="E6" t="n">
-        <v>-237317.0028365898</v>
+        <v>-237351.7407620254</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964031</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964029</v>
+        <v>538272.5314709669</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="J6" t="n">
-        <v>365890.1280142624</v>
+        <v>365855.3900888268</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.2693964028</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.2693964066</v>
+        <v>538272.5314709675</v>
       </c>
       <c r="M6" t="n">
-        <v>410283.1519300122</v>
+        <v>410248.4140045802</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.531470967</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964011</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964028</v>
+        <v>538272.5314709673</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053309</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053309</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26765,7 +26765,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26774,10 +26774,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310532</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310532</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053309</v>
+        <v>590.4941997053405</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632734209</v>
+        <v>2.981900632724546</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26987,16 +26987,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.510546556922298e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310532</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310532</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685954</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310532</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685956</v>
+        <v>513.7321931685958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011791</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.9160043901436</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>365.1056889285524</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524328</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465902</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842216</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063413</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371274</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937736</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>240.2991453334278</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.42298211322634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>195.823630986435</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.704338572332</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>176.3029514381855</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19.26919353399558</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524328</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465902</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842216</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063413</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371274</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937736</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.17567949822907</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>72.3701620584248</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>52.26867365858709</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>53.57061502585952</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966152</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414961</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171768</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009661</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071034</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160764</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337032</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635033</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129711</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728692</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605188</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170452</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506625</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179934</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172922</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366183</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387867</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817781</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401182</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976525</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623812</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394052</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351549</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627491989</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789688</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190939</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R3" t="n">
-        <v>78.8588291606478</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822712</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445272</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830157</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026006</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849409</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303664</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603864</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546578</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917721</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609675</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203253</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O4" t="n">
-        <v>150.508259295385</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324544</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550495</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004206</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319867</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565662</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232769</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966152</v>
+        <v>2.373846028966191</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414961</v>
+        <v>24.31115064415001</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171768</v>
+        <v>91.51769903171918</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009661</v>
+        <v>201.4772144009694</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071034</v>
+        <v>301.9621168071084</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160764</v>
+        <v>374.6107072160826</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337032</v>
+        <v>416.82659153371</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635033</v>
+        <v>423.5712815635102</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129711</v>
+        <v>399.9663501129777</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728692</v>
+        <v>341.3620262728747</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605188</v>
+        <v>256.3486653605229</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170452</v>
+        <v>149.1161056170477</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506625</v>
+        <v>54.09401638506714</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179934</v>
+        <v>10.39151099179951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172922</v>
+        <v>0.1899076823172953</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366183</v>
+        <v>1.270119599366204</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387867</v>
+        <v>12.26668139387887</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817781</v>
+        <v>43.72999497817852</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401182</v>
+        <v>119.9984486401202</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976525</v>
+        <v>205.0964617976559</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623812</v>
+        <v>275.7775033623857</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394052</v>
+        <v>321.8193388394105</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351549</v>
+        <v>330.3369391351603</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627491989</v>
+        <v>302.1937627492038</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789688</v>
+        <v>242.5371364789728</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190939</v>
+        <v>162.1296527190965</v>
       </c>
       <c r="R6" t="n">
-        <v>78.8588291606478</v>
+        <v>78.85882916064909</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822712</v>
+        <v>23.59191448822751</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445272</v>
+        <v>5.119473297445357</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830157</v>
+        <v>0.08356049995830293</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026006</v>
+        <v>1.064825606026024</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849409</v>
+        <v>9.467267660849563</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303664</v>
+        <v>32.02221004303716</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603864</v>
+        <v>75.28317034603988</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546578</v>
+        <v>123.7133749546598</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917721</v>
+        <v>158.3105269177236</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609675</v>
+        <v>166.9162538609702</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203253</v>
+        <v>162.9473584203279</v>
       </c>
       <c r="O7" t="n">
-        <v>150.508259295385</v>
+        <v>150.5082592953875</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324544</v>
+        <v>128.7858169324565</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550495</v>
+        <v>89.16462415550642</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004206</v>
+        <v>47.87843134004284</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319867</v>
+        <v>18.55700624319897</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565662</v>
+        <v>4.549709407565737</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232769</v>
+        <v>0.05808139669232864</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,10 +32315,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162525</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292895</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659437</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521088</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473046</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.546647686209</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565887</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121561</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437255</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214708</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485297</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179046</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862134</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437255</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704851</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463536</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332876</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>179.108944765172</v>
+        <v>335.4275262871237</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064305</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423788966</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540297</v>
+        <v>169.868138691291</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890823</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548606931</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358721</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859662</v>
+        <v>490.652158632585</v>
       </c>
       <c r="M3" t="n">
-        <v>357.7896255306807</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
-        <v>198.9952270518216</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581484</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045757</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689215</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287749</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780371</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228081</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995539</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094247</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973479</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903810568</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463536</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212288</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L5" t="n">
-        <v>138.8442922460892</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M5" t="n">
-        <v>550.8904233966779</v>
+        <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423788966</v>
+        <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540297</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890823</v>
+        <v>191.7754728873651</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548606931</v>
+        <v>34.04297548607346</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138604</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358721</v>
+        <v>331.7202598358755</v>
       </c>
       <c r="L6" t="n">
-        <v>317.0123520420165</v>
+        <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173869</v>
+        <v>357.7896255306534</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310532</v>
+        <v>198.995227051827</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581484</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045757</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307237</v>
+        <v>232.2251663689241</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287749</v>
+        <v>101.443883128777</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780371</v>
+        <v>185.9005521780397</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228081</v>
+        <v>206.5001308228108</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995539</v>
+        <v>207.0795307995565</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094247</v>
+        <v>175.0933872094272</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973479</v>
+        <v>126.06437619735</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903810568</v>
+        <v>3.002580903812031</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35179,19 +35179,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>288.3680331030833</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.5718636626102</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>79.90967444578689</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036774</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243122</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678976</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674304</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641906</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121442</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238466</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992811</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071406</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625082</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394065</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367669</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641952</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992811</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561548</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
